--- a/ViT/vit_data/Vit.xlsx
+++ b/ViT/vit_data/Vit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augustinas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FBBC471-D69B-4AC8-856D-34DECA0924CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D2B96F-85AD-4F97-AB7F-0ED1F27E90A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F6251B95-136F-4F6A-AB4F-65FCCE2C9789}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6251B95-136F-4F6A-AB4F-65FCCE2C9789}"/>
   </bookViews>
   <sheets>
     <sheet name="ViT-L with normalizations" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Iteration</t>
   </si>
@@ -66,7 +66,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -307,24 +307,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="9" xr:uid="{314132E3-C9AD-4559-B010-681A30555DFB}"/>
@@ -661,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD67065-C091-4E83-889D-BBC64A9E5EF3}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -675,140 +668,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>3.9109999999999999E-2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>0.85095500000000002</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0.27049000000000001</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>0.32579000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>7.7960000000000002E-2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>4.5249999999999999E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>0.665327</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.23077</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>0.27149000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>4.648E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.71361699999999995</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.21217</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.25087999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.7719999999999997E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.117E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.38472499999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.24232999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.29511999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5AF0CD-AF94-4B58-A926-208CBFEF9C6C}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -834,140 +839,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>5.0270000000000002E-2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="7">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="7">
         <v>0.892289</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
         <v>0.26495999999999997</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="7">
         <v>0.31574000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>5</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="8">
         <v>2.8119999999999999E-2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="8">
         <v>0.22825999999999999</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="8">
         <v>0.26144000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>10</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>8.6220000000000005E-2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>3.1669999999999997E-2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <v>0.94971799999999995</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>0.22373000000000001</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="7">
         <v>0.27701999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="9">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5.833E-2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.24182999999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.29563</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
